--- a/data/income_statement/2digits/total/58_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/58_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>58-Publishing activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>58-Publishing activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,17 +841,22 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>3909878.304270001</v>
+        <v>3909878.30427</v>
       </c>
       <c r="D5" s="47" t="n">
         <v>4368219.65425</v>
@@ -959,34 +865,39 @@
         <v>4753320.04038</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>5093942.88962</v>
+        <v>5095181.815230001</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>5137551.861099999</v>
+        <v>5140652.061899999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>5370288.19335</v>
+        <v>5373210.892100001</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>5642906.131860001</v>
+        <v>5659956.43971</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>6428249.84118</v>
+        <v>6440314.361999999</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>8097364.392219999</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>10071093.53246</v>
+        <v>10087613.80824</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>11072917.53536</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>11197808.23077</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>13072759.737</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>3836340.51837</v>
@@ -998,34 +909,39 @@
         <v>4642847.07339</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>4947772.26758</v>
+        <v>4949011.19319</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>4999472.487759999</v>
+        <v>5001883.198450001</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>5187272.892770001</v>
+        <v>5190195.591519999</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>5373244.482450001</v>
+        <v>5390194.77507</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>5821759.95483</v>
+        <v>5833268.8968</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>6900434.671200001</v>
+        <v>6900434.6712</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>7631602.65147</v>
+        <v>7643246.466759999</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>8159934.71753</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>8267156.094819999</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>8377421.408</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>25595.68045</v>
@@ -1037,16 +953,16 @@
         <v>44724.15401999999</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>81413.73377000001</v>
+        <v>81413.73376999999</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>79402.32629</v>
+        <v>80088.71610999999</v>
       </c>
       <c r="H7" s="48" t="n">
         <v>107425.51893</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>188430.05321</v>
+        <v>188438.99363</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>502391.6915</v>
@@ -1055,16 +971,21 @@
         <v>1085023.2019</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>2295626.96013</v>
+        <v>2300388.29268</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>2742193.68075</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2758719.93638</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>4457018.657</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>47942.10545</v>
@@ -1073,76 +994,86 @@
         <v>47435.11234000001</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>65748.81296999998</v>
+        <v>65748.81297</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>64756.88827000001</v>
+        <v>64756.88827</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>58677.04704999999</v>
+        <v>58680.14734</v>
       </c>
       <c r="H8" s="48" t="n">
         <v>75589.78165</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>81231.59620000001</v>
+        <v>81322.67100999999</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>104098.19485</v>
+        <v>104653.7737</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>111906.51912</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>143863.92086</v>
+        <v>143979.0488</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>170789.13708</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>171932.19957</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>238319.672</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>654670.8958300001</v>
+        <v>654670.8958299999</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>667987.34825</v>
+        <v>667987.3482500002</v>
       </c>
       <c r="E9" s="47" t="n">
         <v>638482.4270199999</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>615281.04157</v>
+        <v>615504.69175</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>698107.16879</v>
+        <v>698477.10645</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>750277.1633800002</v>
+        <v>750626.05663</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>840150.4278100001</v>
+        <v>840705.1229</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>865773.8116099999</v>
+        <v>866627.88238</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>1123470.14492</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>1129514.68566</v>
+        <v>1129915.91522</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>1051911.16943</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1054836.12385</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>1067620.254</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>395331.81043</v>
@@ -1154,40 +1085,45 @@
         <v>431692.24546</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>455756.2419</v>
+        <v>455979.89208</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>528297.26136</v>
+        <v>528666.8240199999</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>604619.0913800001</v>
+        <v>604967.9846299998</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>642355.02086</v>
+        <v>642902.7575400001</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>688056.77469</v>
+        <v>688765.8504700001</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>815551.9476899999</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>871662.2649500001</v>
+        <v>872052.7528299999</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>784976.9176700001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>787808.2067999999</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>723445.34</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>254368.24658</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>234538.33643</v>
+        <v>234538.3364299999</v>
       </c>
       <c r="E11" s="48" t="n">
         <v>194461.46977</v>
@@ -1205,7 +1141,7 @@
         <v>188434.97593</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>136465.68756</v>
+        <v>136508.32116</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>270342.88817</v>
@@ -1214,13 +1150,18 @@
         <v>216307.21023</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>237109.39732</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>237119.2174</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>299403.583</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>4970.83882</v>
@@ -1235,76 +1176,86 @@
         <v>16328.22673</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>19137.70554</v>
+        <v>19138.08054</v>
       </c>
       <c r="H12" s="48" t="n">
         <v>11263.93922</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>9360.43102</v>
+        <v>9367.389429999999</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>41251.34936000001</v>
+        <v>41353.71075</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>37575.30906</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>41545.21048</v>
+        <v>41555.95216</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>29824.85444</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>29908.69965</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>44771.331</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>3255207.40844</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>3700232.306</v>
+        <v>3700232.305999999</v>
       </c>
       <c r="E13" s="47" t="n">
         <v>4114837.61336</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>4478661.84805</v>
+        <v>4479677.12348</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>4439444.692310001</v>
+        <v>4442174.955450001</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>4620011.02997</v>
+        <v>4622584.835469999</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>4802755.70405</v>
+        <v>4819251.316810001</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>5562476.029569999</v>
+        <v>5573686.47962</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>6973894.247299999</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>8941578.846799999</v>
+        <v>8957697.89302</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>10021006.36593</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>10142972.10692</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>12005139.483</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>2339549.80748</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>2487672.81377</v>
+        <v>2487672.813769999</v>
       </c>
       <c r="E14" s="47" t="n">
         <v>2903506.4078</v>
@@ -1313,31 +1264,36 @@
         <v>3212755.62533</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>3019419.63585</v>
+        <v>3020190.22181</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>3165820.3592</v>
+        <v>3166074.21014</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>3166761.90578</v>
+        <v>3179633.617060001</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>3579244.27376</v>
+        <v>3583350.48057</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>4157439.24495</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>4956182.51107</v>
+        <v>4965810.01461</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>5313578.82303</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>5406593.07144</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>6400188.586</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>1285505.64839</v>
@@ -1352,31 +1308,36 @@
         <v>1772336.03362</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>1844066.3314</v>
+        <v>1844830.66208</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>1833101.368310001</v>
+        <v>1833204.68264</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1584047.38207</v>
+        <v>1584199.03137</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>1791829.29494</v>
+        <v>1794715.01893</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>1941569.8184</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>2314159.913269999</v>
+        <v>2314411.62462</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>2453226.50062</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>2478044.50695</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>2353594.23</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>442630.47281</v>
@@ -1388,34 +1349,39 @@
         <v>509486.26513</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>539017.6435400001</v>
+        <v>539017.64354</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>531794.35675</v>
+        <v>531800.6120300001</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>661501.2036000001</v>
+        <v>661501.2035999999</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>696902.29578</v>
+        <v>707181.78384</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>853508.3128900001</v>
+        <v>854088.3495199999</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>1291025.8894</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1458905.09944</v>
+        <v>1465130.51946</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1449219.23823</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1508882.02997</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1642824.665</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>591544.8134600001</v>
@@ -1433,28 +1399,33 @@
         <v>600121.74527</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>621791.00499</v>
+        <v>621941.5415999999</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>830208.18493</v>
+        <v>832648.75885</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>902071.6369399999</v>
+        <v>902713.71339</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>876416.75665</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1130077.81796</v>
+        <v>1133228.19013</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1351024.51873</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1359533.44047</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>2371256.238</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>19868.87282</v>
@@ -1463,10 +1434,10 @@
         <v>19441.85263</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>27750.76428000001</v>
+        <v>27750.76428</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>31154.23908</v>
+        <v>31154.23908000001</v>
       </c>
       <c r="G18" s="48" t="n">
         <v>43437.20243</v>
@@ -1475,10 +1446,10 @@
         <v>49426.78230000001</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>55604.04299999999</v>
+        <v>55604.043</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>31835.02899</v>
+        <v>31833.39873</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>48426.78049999999</v>
@@ -1487,13 +1458,18 @@
         <v>53039.6804</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>60108.56544999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>60133.09405</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>32513.453</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>915657.60096</v>
@@ -1505,37 +1481,42 @@
         <v>1211331.20556</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1265906.22272</v>
+        <v>1266921.49815</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1420025.05646</v>
+        <v>1421984.73364</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1454190.67077</v>
+        <v>1456510.62533</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1635993.79827</v>
+        <v>1639617.69975</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1983231.75581</v>
+        <v>1990335.99905</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>2816455.00235</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>3985396.33573</v>
+        <v>3991887.87841</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>4707427.5429</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>4736379.035479999</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>5604950.897</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>868092.22878</v>
+        <v>868092.2287800001</v>
       </c>
       <c r="D20" s="47" t="n">
         <v>1007178.68472</v>
@@ -1544,37 +1525,42 @@
         <v>1115560.54295</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1181876.87707</v>
+        <v>1182882.91698</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1250331.46293</v>
+        <v>1252289.47355</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1303968.23245</v>
+        <v>1306094.06356</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1431361.15556</v>
+        <v>1434505.56534</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1760170.34616</v>
+        <v>1765426.85061</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>2088593.97128</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>3604748.10953</v>
+        <v>3609742.34113</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>3713963.76445</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>3729666.06036</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>4843765.695</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>7700.16098</v>
+        <v>7700.160980000001</v>
       </c>
       <c r="D21" s="48" t="n">
         <v>5369.29117</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>12117.94835</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>14039.68</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>496857.3539</v>
@@ -1619,154 +1610,174 @@
         <v>573061.00226</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>622924.0705700001</v>
+        <v>622924.07057</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>661748.78288</v>
+        <v>662413.47015</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>685818.8771000002</v>
+        <v>687055.88051</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>661731.6909599999</v>
+        <v>662451.43955</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>737200.53409</v>
+        <v>737671.9476900001</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>1016494.22866</v>
+        <v>1018492.11227</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>1248467.92316</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>2601320.124979999</v>
+        <v>2601763.69508</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>2594776.239649999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>2600944.74521</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>2855100.385</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>363534.7139</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>428748.39129</v>
+        <v>428748.3912899999</v>
       </c>
       <c r="E23" s="48" t="n">
         <v>487978.15727</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>515463.8501200001</v>
+        <v>515805.20276</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>561138.21595</v>
+        <v>561859.2231599999</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>639794.6291499999</v>
+        <v>641200.7116700001</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>692630.50524</v>
+        <v>695303.5014200001</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>741015.5730099999</v>
+        <v>744274.1938499999</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>837299.7436800001</v>
+        <v>837299.74368</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>994986.29706</v>
+        <v>999536.9585599999</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1107069.57645</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1116603.3668</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1974625.63</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>47565.37218</v>
+        <v>47565.37218000001</v>
       </c>
       <c r="D24" s="47" t="n">
         <v>205380.80751</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>95770.66260999998</v>
+        <v>95770.66261</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>84029.34565</v>
+        <v>84038.58116999999</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>169693.59353</v>
+        <v>169695.26009</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>150222.43832</v>
+        <v>150416.56177</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>204632.64271</v>
+        <v>205112.13441</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>223061.40965</v>
+        <v>224909.14844</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>727861.0310699999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>380648.2262</v>
+        <v>382145.53728</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>993463.7784500001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1006712.97512</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>761185.202</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>445529.82723</v>
+        <v>445529.8272299999</v>
       </c>
       <c r="D25" s="47" t="n">
         <v>460020.15241</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>698451.86144</v>
+        <v>698451.8614399999</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>783178.8078600001</v>
+        <v>783178.8078599999</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>960284.77035</v>
+        <v>960297.6346700001</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>307139.28781</v>
+        <v>307139.2893</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>564336.23691</v>
+        <v>564390.5111799999</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>774810.4697</v>
+        <v>775113.4674600001</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>400167.0597999999</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1275293.67325</v>
+        <v>1280971.0787</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>883027.43429</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>889985.4391199999</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1285910.318</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>2632.99521</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>3983.70485</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>1486.328</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>33.34448</v>
@@ -1840,17 +1856,22 @@
       <c r="M27" s="48" t="n">
         <v>403.31452</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>29247.485</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>47273.04365000001</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>41860.26883999999</v>
+        <v>41860.26884</v>
       </c>
       <c r="E28" s="48" t="n">
         <v>63013.5056</v>
@@ -1859,34 +1880,39 @@
         <v>111213.92931</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>95842.31789999999</v>
+        <v>95842.31790000001</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>95232.54135</v>
+        <v>95232.54284000001</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>85233.61102</v>
+        <v>85233.61102000001</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>44365.39704</v>
+        <v>44366.91695000001</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>80543.79969</v>
+        <v>80543.79969000001</v>
       </c>
       <c r="L28" s="48" t="n">
         <v>87399.60361000001</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>109795.69832</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>109796.80274</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>124511.597</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>476.69178</v>
+        <v>476.6917800000001</v>
       </c>
       <c r="D29" s="48" t="n">
         <v>387.2356600000001</v>
@@ -1918,14 +1944,19 @@
       <c r="M29" s="48" t="n">
         <v>364.81271</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>1744.089</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>295016.3286199999</v>
+        <v>295016.32862</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>296577.46316</v>
@@ -1934,10 +1965,10 @@
         <v>301195.00896</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>326893.77872</v>
+        <v>326893.7787199999</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>321299.8120099999</v>
+        <v>321299.81201</v>
       </c>
       <c r="H30" s="48" t="n">
         <v>26640.9335</v>
@@ -1946,25 +1977,30 @@
         <v>27684.04777</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>349874.5247</v>
+        <v>350020.29207</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>33564.11521</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>318325.57352</v>
+        <v>318325.5735199999</v>
       </c>
       <c r="M30" s="48" t="n">
         <v>319425.67905</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>330550.306</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>652.20194</v>
+        <v>652.2019399999999</v>
       </c>
       <c r="D31" s="48" t="n">
         <v>356.10534</v>
@@ -1976,7 +2012,7 @@
         <v>28279.73026</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>6727.517</v>
+        <v>6727.516999999999</v>
       </c>
       <c r="H31" s="48" t="n">
         <v>922.60775</v>
@@ -1991,16 +2027,21 @@
         <v>4648.92067</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>8937.723830000003</v>
+        <v>8937.723830000001</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>3950.6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>3950.599999999999</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>7662.011</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>79669.51835999999</v>
@@ -2009,7 +2050,7 @@
         <v>98247.21395</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>294514.76827</v>
+        <v>294514.7682700001</v>
       </c>
       <c r="F32" s="48" t="n">
         <v>265586.82894</v>
@@ -2021,25 +2062,30 @@
         <v>138528.69491</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>387700.26953</v>
+        <v>387705.4296800001</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>308834.98054</v>
+        <v>308836.1501199999</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>179602.5642</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>775928.04852</v>
+        <v>781620.71085</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>330277.02993</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>333201.34913</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>689211.728</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>1283.8956</v>
@@ -2072,13 +2118,18 @@
         <v>2442.52232</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>6324.914299999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>6324.9143</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>7863.061</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>18491.80759</v>
@@ -2132,31 +2188,36 @@
         <v>27136.11009</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>27763.40138</v>
+        <v>27776.2657</v>
       </c>
       <c r="H35" s="48" t="n">
         <v>33207.74226</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>31700.65162</v>
+        <v>31749.76574</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>35979.42151</v>
+        <v>36133.96241000001</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>78327.70681</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>81170.63722</v>
+        <v>81155.38034</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>108501.68061</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>112534.26182</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>93633.713</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>117538.92005</v>
@@ -2165,10 +2226,10 @@
         <v>157845.13874</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>342253.10896</v>
+        <v>342253.1089599999</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>305685.56627</v>
+        <v>305708.09328</v>
       </c>
       <c r="G36" s="47" t="n">
         <v>455441.31666</v>
@@ -2177,34 +2238,39 @@
         <v>190388.67321</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>191513.53807</v>
+        <v>191559.71771</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>144928.38765</v>
+        <v>145069.39785</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>185252.68484</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>593325.40751</v>
+        <v>599141.0203</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>344255.70357</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>347663.40541</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>528266.002</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>5814.46982</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>6985.696070000001</v>
+        <v>6985.69607</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>9544.500889999999</v>
+        <v>9544.500890000001</v>
       </c>
       <c r="F37" s="48" t="n">
         <v>9159.757300000001</v>
@@ -2219,22 +2285,27 @@
         <v>14833.5179</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>15197.46588</v>
+        <v>15285.83764</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>7188.308589999999</v>
+        <v>7188.30859</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>6702.85086</v>
+        <v>6733.35086</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>3071.47595</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>3103.7219</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>5813.095</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>50447.8069</v>
@@ -2246,7 +2317,7 @@
         <v>26528.53643</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>51480.95283999999</v>
+        <v>51480.95284</v>
       </c>
       <c r="G38" s="48" t="n">
         <v>23119.84316</v>
@@ -2258,22 +2329,27 @@
         <v>14015.30312</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>25635.51293</v>
+        <v>25656.57911</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>23744.34343999999</v>
+        <v>23744.34344</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>67946.76776999999</v>
+        <v>67967.12371000001</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>57497.11911</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>57497.11911000001</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>27967.745</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>49.20795</v>
@@ -2297,7 +2373,7 @@
         <v>554.5303699999999</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>277.88308</v>
+        <v>277.8830799999999</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>1689.68788</v>
@@ -2306,34 +2382,39 @@
         <v>10504.26842</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>71.85917999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>72.24606999999999</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>202.183</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>50468.76587999999</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>95865.15187</v>
+        <v>95865.15186999999</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>292857.5734899999</v>
+        <v>292857.57349</v>
       </c>
       <c r="F40" s="48" t="n">
         <v>230939.29445</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>376244.3937200001</v>
+        <v>376244.39372</v>
       </c>
       <c r="H40" s="48" t="n">
         <v>73709.62793999999</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>138604.5838</v>
+        <v>138611.34244</v>
       </c>
       <c r="J40" s="48" t="n">
         <v>93205.99317999999</v>
@@ -2342,16 +2423,21 @@
         <v>117988.1205</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>473501.18189</v>
+        <v>479253.05573</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>193940.50217</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>196891.72211</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>439007.332</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>739.22657</v>
@@ -2363,10 +2449,10 @@
         <v>2231.10876</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>5000.205759999999</v>
+        <v>5000.20576</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>3237.41646</v>
+        <v>3237.416459999999</v>
       </c>
       <c r="H41" s="48" t="n">
         <v>2774.58352</v>
@@ -2384,13 +2470,18 @@
         <v>2452.7257</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>6276.35473</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>6276.354729999999</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>10010.644</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>9.327030000000001</v>
@@ -2425,50 +2516,60 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>10010.1159</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>9518.320790000002</v>
+        <v>9518.32079</v>
       </c>
       <c r="E43" s="48" t="n">
         <v>11091.10953</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>8065.93467</v>
+        <v>8088.46168</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>9651.462549999998</v>
+        <v>9651.46255</v>
       </c>
       <c r="H43" s="48" t="n">
         <v>61433.39472</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>19425.57247</v>
+        <v>19464.99347</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>9380.26519</v>
+        <v>9411.837449999999</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>33186.79016</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>32217.61287</v>
+        <v>32230.49588</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>83398.39243000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>83822.24149</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>45265.003</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>228401.85351</v>
@@ -2477,37 +2578,42 @@
         <v>215004.62802</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>545206.9816300002</v>
+        <v>545206.9816300001</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>220043.51327</v>
+        <v>220049.96041</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>476179.87586</v>
+        <v>476260.92677</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>290277.30206</v>
+        <v>290302.30426</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>505685.7152</v>
+        <v>505825.2590499999</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>352145.4396699999</v>
+        <v>353259.01137</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>288951.16997</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>341069.98139</v>
+        <v>341081.29726</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>326445.82578</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>326587.5109299999</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>218280.234</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>207668.43391</v>
@@ -2519,34 +2625,39 @@
         <v>491450.65527</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>218038.13569</v>
+        <v>218044.58283</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>474867.0435699999</v>
+        <v>474948.09448</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>151483.36922</v>
+        <v>151508.37142</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>169582.2089</v>
+        <v>169721.75275</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>176243.62503</v>
+        <v>177356.88098</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>286726.22837</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>334787.07675</v>
+        <v>334798.36712</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>319522.33106</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>319664.01621</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>214102.156</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>20733.4196</v>
@@ -2555,7 +2666,7 @@
         <v>15024.51502</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>53756.32636</v>
+        <v>53756.32636000001</v>
       </c>
       <c r="F46" s="48" t="n">
         <v>2005.37758</v>
@@ -2567,25 +2678,30 @@
         <v>138793.93284</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>336103.5063000001</v>
+        <v>336103.5063</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>175901.81464</v>
+        <v>175902.13039</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>2224.9416</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>6282.90464</v>
+        <v>6282.930139999999</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>6923.494720000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>6923.49472</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>4178.078</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>147154.42585</v>
@@ -2594,37 +2710,42 @@
         <v>292551.19316</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-93237.56654</v>
+        <v>-93237.56653999996</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>341479.07397</v>
+        <v>341459.33534</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>198357.17136</v>
+        <v>198290.65133</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-23304.24914</v>
+        <v>-23135.1264</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>71769.62634999999</v>
+        <v>72117.66883</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>500798.05203</v>
+        <v>501694.2066800001</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>653824.23606</v>
+        <v>653824.2360599999</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>721546.51055</v>
+        <v>722894.29842</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1205789.68339</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1222447.4979</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1300549.284</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>25228.18345</v>
@@ -2633,37 +2754,42 @@
         <v>17102.01115</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>87778.18981999999</v>
+        <v>87778.18982000001</v>
       </c>
       <c r="F48" s="47" t="n">
         <v>224755.49362</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>32591.42137</v>
+        <v>33130.20232</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>318583.0771800001</v>
+        <v>318595.47804</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>867935.0506699998</v>
+        <v>867951.7821</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>48274.12199</v>
+        <v>48378.24492</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>130881.9847</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>365198.7711300001</v>
+        <v>365234.01375</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>52815.15017999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>52926.87058</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>116004.636</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>13972.90241</v>
@@ -2678,19 +2804,19 @@
         <v>2365.47943</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>877.1868499999999</v>
+        <v>1394.30765</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>674.8646200000001</v>
+        <v>674.8646199999999</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>3713.249800000001</v>
+        <v>3713.2498</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>753.77032</v>
+        <v>753.7703200000001</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>576.9366699999999</v>
+        <v>576.93667</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>496.12335</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>816.09533</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>1233.645</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>11255.28104</v>
@@ -2717,31 +2848,36 @@
         <v>222390.01419</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>31714.23452</v>
+        <v>31735.89467</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>317908.21256</v>
+        <v>317920.61342</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>864221.80087</v>
+        <v>864238.5323</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>47520.35167</v>
+        <v>47624.47459999999</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>130305.04803</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>364702.6477800001</v>
+        <v>364737.8904</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>51999.05484999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>52110.77525</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>114770.991</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>25477.09797</v>
@@ -2753,34 +2889,39 @@
         <v>264128.31491</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>42445.42118</v>
+        <v>42580.71018</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>87930.09490000001</v>
+        <v>87934.07668</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>234586.27988</v>
+        <v>234588.34329</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>156750.49339</v>
+        <v>156831.42119</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>121136.72996</v>
+        <v>121235.45341</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>93136.82984000001</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>194696.97931</v>
+        <v>194777.5573</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>123020.06708</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>125830.03422</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>163345.062</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>539.13301</v>
@@ -2789,10 +2930,10 @@
         <v>1881.23894</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>851.26446</v>
+        <v>851.2644600000001</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>933.4832799999999</v>
+        <v>933.48328</v>
       </c>
       <c r="G52" s="48" t="n">
         <v>1617.79234</v>
@@ -2801,10 +2942,10 @@
         <v>944.33137</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>682.6476100000001</v>
+        <v>682.64761</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>81.01761</v>
+        <v>81.01793000000001</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>2069.48777</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>820.5178300000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>653.84</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>2492.27322</v>
@@ -2843,22 +2989,27 @@
         <v>4552.09458</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>3376.94566</v>
+        <v>3382.4342</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>2079.78721</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>2542.00962</v>
+        <v>2545.12065</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>4181.08179</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>4184.314609999999</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>1915.251</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>22445.69174</v>
@@ -2870,34 +3021,39 @@
         <v>261390.31875</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>40250.94288</v>
+        <v>40386.23188</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>84131.80263999999</v>
+        <v>84135.78442000001</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>231764.47546</v>
+        <v>231766.53887</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>151515.7512</v>
+        <v>151596.679</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>117678.76669</v>
+        <v>117772.00128</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>88987.55486</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>190674.66113</v>
+        <v>190752.12809</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>118018.46746</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>120825.20178</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>160775.971</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>146905.51133</v>
@@ -2909,40 +3065,45 @@
         <v>-269587.69163</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>523789.14641</v>
+        <v>523634.1187799999</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>143018.49783</v>
+        <v>143486.77697</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>60692.54816</v>
+        <v>60872.00835</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>782954.1836300001</v>
+        <v>783238.02974</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>427935.44406</v>
+        <v>428836.9981900001</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>691569.39092</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>892048.30237</v>
+        <v>893350.7548699998</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1135584.76649</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1149544.33426</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1253208.858</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>33264.05686999999</v>
+        <v>33264.05687</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>38623.28866999999</v>
+        <v>38623.28867</v>
       </c>
       <c r="E56" s="47" t="n">
         <v>44547.64513</v>
@@ -2951,67 +3112,75 @@
         <v>66697.29987</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>58379.26218</v>
+        <v>58432.93605</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>55069.39519000001</v>
+        <v>55077.36646</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>76308.20324</v>
+        <v>76325.35505000001</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>82520.12581</v>
+        <v>82538.85031000001</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>166075.4053</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>180225.8347</v>
+        <v>180346.39939</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>265050.29895</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>266427.51296</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>263278.066</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>113641.45446</v>
+        <v>113641.4544600001</v>
       </c>
       <c r="D57" s="47" t="n">
         <v>236545.63916</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-314135.33676</v>
+        <v>-314135.3367599999</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>457091.84654</v>
+        <v>456936.81891</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>84639.23565</v>
+        <v>85053.84091999999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>5623.152969999997</v>
+        <v>5794.641889999994</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>706645.98039</v>
+        <v>706912.67469</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>345415.31825</v>
+        <v>346298.14788</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>525493.9856200001</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>711822.46767</v>
+        <v>713004.35548</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>870534.46754</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>883116.8213000001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>989930.792</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>1700</v>
@@ -3041,31 +3213,34 @@
         <v>1844</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1939</v>
+        <v>1946</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>2040</v>
+        <v>2046</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>2089</v>
+        <v>2107</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>2176</v>
+        <v>2192</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>2275</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>2271</v>
+        <v>2329</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>2291</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>2418</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>